--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Sema4b-Dcbld2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Sema4b-Dcbld2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.00830640536903</v>
+        <v>1.503062666666667</v>
       </c>
       <c r="H2">
-        <v>1.00830640536903</v>
+        <v>4.509188</v>
       </c>
       <c r="I2">
-        <v>0.1118540120170913</v>
+        <v>0.1529782459008696</v>
       </c>
       <c r="J2">
-        <v>0.1118540120170913</v>
+        <v>0.1529782459008696</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.49404065162771</v>
+        <v>5.855085666666667</v>
       </c>
       <c r="N2">
-        <v>5.49404065162771</v>
+        <v>17.565257</v>
       </c>
       <c r="O2">
-        <v>0.1024994632139887</v>
+        <v>0.106330777065451</v>
       </c>
       <c r="P2">
-        <v>0.1024994632139887</v>
+        <v>0.106330777065451</v>
       </c>
       <c r="Q2">
-        <v>5.539676380394059</v>
+        <v>8.800560675701778</v>
       </c>
       <c r="R2">
-        <v>5.539676380394059</v>
+        <v>79.205046081316</v>
       </c>
       <c r="S2">
-        <v>0.0114649761900829</v>
+        <v>0.01626629576074912</v>
       </c>
       <c r="T2">
-        <v>0.0114649761900829</v>
+        <v>0.01626629576074911</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.00830640536903</v>
+        <v>1.503062666666667</v>
       </c>
       <c r="H3">
-        <v>1.00830640536903</v>
+        <v>4.509188</v>
       </c>
       <c r="I3">
-        <v>0.1118540120170913</v>
+        <v>0.1529782459008696</v>
       </c>
       <c r="J3">
-        <v>0.1118540120170913</v>
+        <v>0.1529782459008696</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>33.0227085884984</v>
+        <v>33.421606</v>
       </c>
       <c r="N3">
-        <v>33.0227085884984</v>
+        <v>100.264818</v>
       </c>
       <c r="O3">
-        <v>0.6160875244325412</v>
+        <v>0.6069501863972739</v>
       </c>
       <c r="P3">
-        <v>0.6160875244325412</v>
+        <v>0.6069501863972738</v>
       </c>
       <c r="Q3">
-        <v>33.29700859241782</v>
+        <v>50.23476823864266</v>
       </c>
       <c r="R3">
-        <v>33.29700859241782</v>
+        <v>452.112914147784</v>
       </c>
       <c r="S3">
-        <v>0.06891186136145747</v>
+        <v>0.09285017486426082</v>
       </c>
       <c r="T3">
-        <v>0.06891186136145747</v>
+        <v>0.09285017486426081</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.00830640536903</v>
+        <v>1.503062666666667</v>
       </c>
       <c r="H4">
-        <v>1.00830640536903</v>
+        <v>4.509188</v>
       </c>
       <c r="I4">
-        <v>0.1118540120170913</v>
+        <v>0.1529782459008696</v>
       </c>
       <c r="J4">
-        <v>0.1118540120170913</v>
+        <v>0.1529782459008696</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.400133940560308</v>
+        <v>0.5207056666666666</v>
       </c>
       <c r="N4">
-        <v>0.400133940560308</v>
+        <v>1.562117</v>
       </c>
       <c r="O4">
-        <v>0.00746509112723413</v>
+        <v>0.009456230243437438</v>
       </c>
       <c r="P4">
-        <v>0.00746509112723413</v>
+        <v>0.009456230243437436</v>
       </c>
       <c r="Q4">
-        <v>0.4034576152725093</v>
+        <v>0.7826532478884444</v>
       </c>
       <c r="R4">
-        <v>0.4034576152725093</v>
+        <v>7.043879230995999</v>
       </c>
       <c r="S4">
-        <v>0.0008350003926543278</v>
+        <v>0.001446597515475813</v>
       </c>
       <c r="T4">
-        <v>0.0008350003926543278</v>
+        <v>0.001446597515475812</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.00830640536903</v>
+        <v>1.503062666666667</v>
       </c>
       <c r="H5">
-        <v>1.00830640536903</v>
+        <v>4.509188</v>
       </c>
       <c r="I5">
-        <v>0.1118540120170913</v>
+        <v>0.1529782459008696</v>
       </c>
       <c r="J5">
-        <v>0.1118540120170913</v>
+        <v>0.1529782459008696</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.6837941239134</v>
+        <v>15.267428</v>
       </c>
       <c r="N5">
-        <v>14.6837941239134</v>
+        <v>45.802284</v>
       </c>
       <c r="O5">
-        <v>0.2739479212262358</v>
+        <v>0.2772628062938376</v>
       </c>
       <c r="P5">
-        <v>0.2739479212262358</v>
+        <v>0.2772628062938375</v>
       </c>
       <c r="Q5">
-        <v>14.805763670262</v>
+        <v>22.94790104282134</v>
       </c>
       <c r="R5">
-        <v>14.805763670262</v>
+        <v>206.531109385392</v>
       </c>
       <c r="S5">
-        <v>0.03064217407289655</v>
+        <v>0.04241517776038387</v>
       </c>
       <c r="T5">
-        <v>0.03064217407289655</v>
+        <v>0.04241517776038386</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.38056863040452</v>
+        <v>1.420618666666667</v>
       </c>
       <c r="H6">
-        <v>1.38056863040452</v>
+        <v>4.261856</v>
       </c>
       <c r="I6">
-        <v>0.1531500140764944</v>
+        <v>0.1445872860395478</v>
       </c>
       <c r="J6">
-        <v>0.1531500140764944</v>
+        <v>0.1445872860395478</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.49404065162771</v>
+        <v>5.855085666666667</v>
       </c>
       <c r="N6">
-        <v>5.49404065162771</v>
+        <v>17.565257</v>
       </c>
       <c r="O6">
-        <v>0.1024994632139887</v>
+        <v>0.106330777065451</v>
       </c>
       <c r="P6">
-        <v>0.1024994632139887</v>
+        <v>0.106330777065451</v>
       </c>
       <c r="Q6">
-        <v>7.584900177804424</v>
+        <v>8.31784399299911</v>
       </c>
       <c r="R6">
-        <v>7.584900177804424</v>
+        <v>74.860595936992</v>
       </c>
       <c r="S6">
-        <v>0.01569779423405549</v>
+        <v>0.01537407847836976</v>
       </c>
       <c r="T6">
-        <v>0.01569779423405549</v>
+        <v>0.01537407847836976</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.38056863040452</v>
+        <v>1.420618666666667</v>
       </c>
       <c r="H7">
-        <v>1.38056863040452</v>
+        <v>4.261856</v>
       </c>
       <c r="I7">
-        <v>0.1531500140764944</v>
+        <v>0.1445872860395478</v>
       </c>
       <c r="J7">
-        <v>0.1531500140764944</v>
+        <v>0.1445872860395478</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.0227085884984</v>
+        <v>33.421606</v>
       </c>
       <c r="N7">
-        <v>33.0227085884984</v>
+        <v>100.264818</v>
       </c>
       <c r="O7">
-        <v>0.6160875244325412</v>
+        <v>0.6069501863972739</v>
       </c>
       <c r="P7">
-        <v>0.6160875244325412</v>
+        <v>0.6069501863972738</v>
       </c>
       <c r="Q7">
-        <v>45.59011556827082</v>
+        <v>47.47935735357866</v>
       </c>
       <c r="R7">
-        <v>45.59011556827082</v>
+        <v>427.3142161822079</v>
       </c>
       <c r="S7">
-        <v>0.09435381303919625</v>
+        <v>0.08775728021237951</v>
       </c>
       <c r="T7">
-        <v>0.09435381303919625</v>
+        <v>0.0877572802123795</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.38056863040452</v>
+        <v>1.420618666666667</v>
       </c>
       <c r="H8">
-        <v>1.38056863040452</v>
+        <v>4.261856</v>
       </c>
       <c r="I8">
-        <v>0.1531500140764944</v>
+        <v>0.1445872860395478</v>
       </c>
       <c r="J8">
-        <v>0.1531500140764944</v>
+        <v>0.1445872860395478</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.400133940560308</v>
+        <v>0.5207056666666666</v>
       </c>
       <c r="N8">
-        <v>0.400133940560308</v>
+        <v>1.562117</v>
       </c>
       <c r="O8">
-        <v>0.00746509112723413</v>
+        <v>0.009456230243437438</v>
       </c>
       <c r="P8">
-        <v>0.00746509112723413</v>
+        <v>0.009456230243437436</v>
       </c>
       <c r="Q8">
-        <v>0.552412366297708</v>
+        <v>0.7397241899057777</v>
       </c>
       <c r="R8">
-        <v>0.552412366297708</v>
+        <v>6.657517709151999</v>
       </c>
       <c r="S8">
-        <v>0.00114327881121822</v>
+        <v>0.001367250667063712</v>
       </c>
       <c r="T8">
-        <v>0.00114327881121822</v>
+        <v>0.001367250667063712</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.38056863040452</v>
+        <v>1.420618666666667</v>
       </c>
       <c r="H9">
-        <v>1.38056863040452</v>
+        <v>4.261856</v>
       </c>
       <c r="I9">
-        <v>0.1531500140764944</v>
+        <v>0.1445872860395478</v>
       </c>
       <c r="J9">
-        <v>0.1531500140764944</v>
+        <v>0.1445872860395478</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.6837941239134</v>
+        <v>15.267428</v>
       </c>
       <c r="N9">
-        <v>14.6837941239134</v>
+        <v>45.802284</v>
       </c>
       <c r="O9">
-        <v>0.2739479212262358</v>
+        <v>0.2772628062938376</v>
       </c>
       <c r="P9">
-        <v>0.2739479212262358</v>
+        <v>0.2772628062938375</v>
       </c>
       <c r="Q9">
-        <v>20.27198554279306</v>
+        <v>21.68919320878933</v>
       </c>
       <c r="R9">
-        <v>20.27198554279306</v>
+        <v>195.202738879104</v>
       </c>
       <c r="S9">
-        <v>0.04195512799202438</v>
+        <v>0.04008867668173483</v>
       </c>
       <c r="T9">
-        <v>0.04195512799202438</v>
+        <v>0.04008867668173483</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.80368845553373</v>
+        <v>4.029369333333333</v>
       </c>
       <c r="H10">
-        <v>3.80368845553373</v>
+        <v>12.088108</v>
       </c>
       <c r="I10">
-        <v>0.4219529023608928</v>
+        <v>0.410099902266277</v>
       </c>
       <c r="J10">
-        <v>0.4219529023608928</v>
+        <v>0.410099902266277</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.49404065162771</v>
+        <v>5.855085666666667</v>
       </c>
       <c r="N10">
-        <v>5.49404065162771</v>
+        <v>17.565257</v>
       </c>
       <c r="O10">
-        <v>0.1024994632139887</v>
+        <v>0.106330777065451</v>
       </c>
       <c r="P10">
-        <v>0.1024994632139887</v>
+        <v>0.106330777065451</v>
       </c>
       <c r="Q10">
-        <v>20.89761900082933</v>
+        <v>23.59230262930622</v>
       </c>
       <c r="R10">
-        <v>20.89761900082933</v>
+        <v>212.330723663756</v>
       </c>
       <c r="S10">
-        <v>0.0432499459935761</v>
+        <v>0.04360624128243876</v>
       </c>
       <c r="T10">
-        <v>0.0432499459935761</v>
+        <v>0.04360624128243875</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.80368845553373</v>
+        <v>4.029369333333333</v>
       </c>
       <c r="H11">
-        <v>3.80368845553373</v>
+        <v>12.088108</v>
       </c>
       <c r="I11">
-        <v>0.4219529023608928</v>
+        <v>0.410099902266277</v>
       </c>
       <c r="J11">
-        <v>0.4219529023608928</v>
+        <v>0.410099902266277</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>33.0227085884984</v>
+        <v>33.421606</v>
       </c>
       <c r="N11">
-        <v>33.0227085884984</v>
+        <v>100.264818</v>
       </c>
       <c r="O11">
-        <v>0.6160875244325412</v>
+        <v>0.6069501863972739</v>
       </c>
       <c r="P11">
-        <v>0.6160875244325412</v>
+        <v>0.6069501863972738</v>
       </c>
       <c r="Q11">
-        <v>125.6080954285259</v>
+        <v>134.6679942871493</v>
       </c>
       <c r="R11">
-        <v>125.6080954285259</v>
+        <v>1212.011948584344</v>
       </c>
       <c r="S11">
-        <v>0.2599599190426482</v>
+        <v>0.2489102121220207</v>
       </c>
       <c r="T11">
-        <v>0.2599599190426482</v>
+        <v>0.2489102121220206</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.80368845553373</v>
+        <v>4.029369333333333</v>
       </c>
       <c r="H12">
-        <v>3.80368845553373</v>
+        <v>12.088108</v>
       </c>
       <c r="I12">
-        <v>0.4219529023608928</v>
+        <v>0.410099902266277</v>
       </c>
       <c r="J12">
-        <v>0.4219529023608928</v>
+        <v>0.410099902266277</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.400133940560308</v>
+        <v>0.5207056666666666</v>
       </c>
       <c r="N12">
-        <v>0.400133940560308</v>
+        <v>1.562117</v>
       </c>
       <c r="O12">
-        <v>0.00746509112723413</v>
+        <v>0.009456230243437438</v>
       </c>
       <c r="P12">
-        <v>0.00746509112723413</v>
+        <v>0.009456230243437436</v>
       </c>
       <c r="Q12">
-        <v>1.521984850376463</v>
+        <v>2.098115444959555</v>
       </c>
       <c r="R12">
-        <v>1.521984850376463</v>
+        <v>18.883039004636</v>
       </c>
       <c r="S12">
-        <v>0.00314991686752499</v>
+        <v>0.003877999098641106</v>
       </c>
       <c r="T12">
-        <v>0.00314991686752499</v>
+        <v>0.003877999098641106</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.80368845553373</v>
+        <v>4.029369333333333</v>
       </c>
       <c r="H13">
-        <v>3.80368845553373</v>
+        <v>12.088108</v>
       </c>
       <c r="I13">
-        <v>0.4219529023608928</v>
+        <v>0.410099902266277</v>
       </c>
       <c r="J13">
-        <v>0.4219529023608928</v>
+        <v>0.410099902266277</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.6837941239134</v>
+        <v>15.267428</v>
       </c>
       <c r="N13">
-        <v>14.6837941239134</v>
+        <v>45.802284</v>
       </c>
       <c r="O13">
-        <v>0.2739479212262358</v>
+        <v>0.2772628062938376</v>
       </c>
       <c r="P13">
-        <v>0.2739479212262358</v>
+        <v>0.2772628062938375</v>
       </c>
       <c r="Q13">
-        <v>55.85257819256342</v>
+        <v>61.51810618207467</v>
       </c>
       <c r="R13">
-        <v>55.85257819256342</v>
+        <v>553.662955638672</v>
       </c>
       <c r="S13">
-        <v>0.1155931204571434</v>
+        <v>0.1137054497631765</v>
       </c>
       <c r="T13">
-        <v>0.1155931204571434</v>
+        <v>0.1137054497631765</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.82192232986256</v>
+        <v>2.872285333333334</v>
       </c>
       <c r="H14">
-        <v>2.82192232986256</v>
+        <v>8.616856</v>
       </c>
       <c r="I14">
-        <v>0.3130430715455216</v>
+        <v>0.2923345657933055</v>
       </c>
       <c r="J14">
-        <v>0.3130430715455216</v>
+        <v>0.2923345657933055</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.49404065162771</v>
+        <v>5.855085666666667</v>
       </c>
       <c r="N14">
-        <v>5.49404065162771</v>
+        <v>17.565257</v>
       </c>
       <c r="O14">
-        <v>0.1024994632139887</v>
+        <v>0.106330777065451</v>
       </c>
       <c r="P14">
-        <v>0.1024994632139887</v>
+        <v>0.106330777065451</v>
       </c>
       <c r="Q14">
-        <v>15.50375599600089</v>
+        <v>16.81747668577689</v>
       </c>
       <c r="R14">
-        <v>15.50375599600089</v>
+        <v>151.357290171992</v>
       </c>
       <c r="S14">
-        <v>0.03208674679627423</v>
+        <v>0.0310841615438934</v>
       </c>
       <c r="T14">
-        <v>0.03208674679627423</v>
+        <v>0.03108416154389339</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.82192232986256</v>
+        <v>2.872285333333334</v>
       </c>
       <c r="H15">
-        <v>2.82192232986256</v>
+        <v>8.616856</v>
       </c>
       <c r="I15">
-        <v>0.3130430715455216</v>
+        <v>0.2923345657933055</v>
       </c>
       <c r="J15">
-        <v>0.3130430715455216</v>
+        <v>0.2923345657933055</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>33.0227085884984</v>
+        <v>33.421606</v>
       </c>
       <c r="N15">
-        <v>33.0227085884984</v>
+        <v>100.264818</v>
       </c>
       <c r="O15">
-        <v>0.6160875244325412</v>
+        <v>0.6069501863972739</v>
       </c>
       <c r="P15">
-        <v>0.6160875244325412</v>
+        <v>0.6069501863972738</v>
       </c>
       <c r="Q15">
-        <v>93.18751875842779</v>
+        <v>95.99638873024533</v>
       </c>
       <c r="R15">
-        <v>93.18751875842779</v>
+        <v>863.967498572208</v>
       </c>
       <c r="S15">
-        <v>0.1928619309892393</v>
+        <v>0.1774325191986129</v>
       </c>
       <c r="T15">
-        <v>0.1928619309892393</v>
+        <v>0.1774325191986129</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.82192232986256</v>
+        <v>2.872285333333334</v>
       </c>
       <c r="H16">
-        <v>2.82192232986256</v>
+        <v>8.616856</v>
       </c>
       <c r="I16">
-        <v>0.3130430715455216</v>
+        <v>0.2923345657933055</v>
       </c>
       <c r="J16">
-        <v>0.3130430715455216</v>
+        <v>0.2923345657933055</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.400133940560308</v>
+        <v>0.5207056666666666</v>
       </c>
       <c r="N16">
-        <v>0.400133940560308</v>
+        <v>1.562117</v>
       </c>
       <c r="O16">
-        <v>0.00746509112723413</v>
+        <v>0.009456230243437438</v>
       </c>
       <c r="P16">
-        <v>0.00746509112723413</v>
+        <v>0.009456230243437436</v>
       </c>
       <c r="Q16">
-        <v>1.129146901803032</v>
+        <v>1.495615249350222</v>
       </c>
       <c r="R16">
-        <v>1.129146901803032</v>
+        <v>13.460537244152</v>
       </c>
       <c r="S16">
-        <v>0.002336895055836592</v>
+        <v>0.002764382962256807</v>
       </c>
       <c r="T16">
-        <v>0.002336895055836592</v>
+        <v>0.002764382962256807</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.82192232986256</v>
+        <v>2.872285333333334</v>
       </c>
       <c r="H17">
-        <v>2.82192232986256</v>
+        <v>8.616856</v>
       </c>
       <c r="I17">
-        <v>0.3130430715455216</v>
+        <v>0.2923345657933055</v>
       </c>
       <c r="J17">
-        <v>0.3130430715455216</v>
+        <v>0.2923345657933055</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.6837941239134</v>
+        <v>15.267428</v>
       </c>
       <c r="N17">
-        <v>14.6837941239134</v>
+        <v>45.802284</v>
       </c>
       <c r="O17">
-        <v>0.2739479212262358</v>
+        <v>0.2772628062938376</v>
       </c>
       <c r="P17">
-        <v>0.2739479212262358</v>
+        <v>0.2772628062938375</v>
       </c>
       <c r="Q17">
-        <v>41.43652652537587</v>
+        <v>43.85240952212267</v>
       </c>
       <c r="R17">
-        <v>41.43652652537587</v>
+        <v>394.671685699104</v>
       </c>
       <c r="S17">
-        <v>0.08575749870417144</v>
+        <v>0.0810535020885424</v>
       </c>
       <c r="T17">
-        <v>0.08575749870417144</v>
+        <v>0.08105350208854238</v>
       </c>
     </row>
   </sheetData>
